--- a/public_html/Dichotomous Keys/Key to Plant Parasitic Nematodes Miai Mullin/Miai Mullin.xlsx
+++ b/public_html/Dichotomous Keys/Key to Plant Parasitic Nematodes Miai Mullin/Miai Mullin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\WKW_001\public_html\Dichotomous Keys\Key to Plant Parasitic Nematodes Miai Mullin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A7FFA-118C-4386-9B5B-985017DB3944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466452AF-AE27-41FD-AC29-62F88D50F96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32355" yWindow="1815" windowWidth="25050" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="2730" windowWidth="24510" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>7</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>9</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>9</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>10</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>10</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>13</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>15</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>15</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>16</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>17</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>18</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>19</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>20</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>21</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>27</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>28</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>30</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>31</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>33</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>34</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>39</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>41</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>42</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>43</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>43</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>46</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>47</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>47</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>48</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>48</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>49</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>54</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>55</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>57</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>57</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>58</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>58</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>60</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>60</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>62</v>
       </c>
